--- a/data/outputs/management_altmetric/30.xlsx
+++ b/data/outputs/management_altmetric/30.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE12"/>
+  <dimension ref="A1:CF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1025,6 +1030,9 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1274,6 +1282,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1519,6 +1530,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1765,6 +1779,9 @@
       </c>
       <c r="CE5" t="n">
         <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="6">
@@ -2007,6 +2024,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2253,6 +2273,9 @@
       </c>
       <c r="CE7" t="n">
         <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
@@ -2495,6 +2518,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2746,6 +2772,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3001,6 +3030,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3252,6 +3284,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>53.55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3503,6 +3538,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>1.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
